--- a/Images/data_additional.xlsx
+++ b/Images/data_additional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcftaeu_ucl_ac_uk/Documents/Documents/University/YearM_T2/CASA0023/GroupPresentation/desert-roses/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{E081BB90-178A-4ADB-A15E-0832B53FC19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505AE583-69E3-4212-B17F-3EB4AB14CEB2}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{E081BB90-178A-4ADB-A15E-0832B53FC19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEFB59F-ED50-4BF6-9E6A-D7A1BB8C6320}"/>
   <bookViews>
-    <workbookView xWindow="63000" yWindow="2655" windowWidth="23805" windowHeight="9960" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
+    <workbookView xWindow="62595" yWindow="2655" windowWidth="23805" windowHeight="9960" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/Images/data_additional.xlsx
+++ b/Images/data_additional.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcftaeu_ucl_ac_uk/Documents/Documents/University/YearM_T2/CASA0023/GroupPresentation/desert-roses/Images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\CASA\Portfolio\desert-roses\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{E081BB90-178A-4ADB-A15E-0832B53FC19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEFB59F-ED50-4BF6-9E6A-D7A1BB8C6320}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370F6B4-00A8-4CAD-A579-2D04B638EA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62595" yWindow="2655" windowWidth="23805" windowHeight="9960" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Spatial Resolution</t>
   </si>
@@ -44,13 +44,7 @@
     <t>Data Range</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Processing</t>
-  </si>
-  <si>
-    <t>Free</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -492,28 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03DA8CD-7C18-40C4-B626-8517A0867A2A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.64453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -524,88 +517,73 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="43" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>2021</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Images/data_additional.xlsx
+++ b/Images/data_additional.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\CASA\Portfolio\desert-roses\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Documents\CASA\Portfolio\desertification\desert-roses\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370F6B4-00A8-4CAD-A579-2D04B638EA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA6EA2B-E080-46F4-897F-493DE867A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="18000" windowHeight="11170" xr2:uid="{9FC9B43F-F867-4683-A08A-E0DDCD3D78E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Calculation of slope from elevation data</t>
   </si>
   <si>
-    <t>Great Green Wall Extent*</t>
-  </si>
-  <si>
     <t>Food and Agriculture Organisation (FAO) of the United Nations</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>Great Green Wall Extent</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -571,19 +571,19 @@
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2021</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
